--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/10/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/10/seed3/result_data_KNN.xlsx
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.2</v>
+        <v>-13.164</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.298</v>
+        <v>5.910000000000001</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.784</v>
+        <v>-21.663</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>16.458</v>
+        <v>16.364</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.576</v>
+        <v>-21.515</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>17.044</v>
+        <v>16.95</v>
       </c>
     </row>
     <row r="15">
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.901999999999999</v>
+        <v>5.072000000000001</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -734,13 +734,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.632</v>
+        <v>-21.694</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-10.21</v>
+        <v>-10.704</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.176</v>
+        <v>-11.706</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.026</v>
+        <v>7.217000000000001</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.6</v>
+        <v>-13.359</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.562</v>
+        <v>5.645</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>5.044</v>
+        <v>6.02</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>6.298</v>
+        <v>5.654000000000001</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.754</v>
+        <v>16.847</v>
       </c>
     </row>
     <row r="33">
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>15.978</v>
+        <v>16.384</v>
       </c>
     </row>
     <row r="36">
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.528</v>
+        <v>-20.287</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.35</v>
+        <v>8.870999999999999</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.022</v>
+        <v>-12.533</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.362</v>
+        <v>17.071</v>
       </c>
     </row>
     <row r="44">
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.286</v>
+        <v>-12.324</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1233,7 +1233,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.272</v>
+        <v>-12.083</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1273,7 +1273,7 @@
         <v>-9.210000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>16.476</v>
+        <v>16.359</v>
       </c>
     </row>
     <row r="50">
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.576</v>
+        <v>-21.875</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.246</v>
+        <v>16.374</v>
       </c>
     </row>
     <row r="57">
@@ -1420,7 +1420,7 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-12.332</v>
+        <v>-12.621</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.734</v>
+        <v>-21.581</v>
       </c>
       <c r="B68" t="n">
-        <v>4.548</v>
+        <v>5.242</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.072</v>
+        <v>17.448</v>
       </c>
     </row>
     <row r="70">
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.964</v>
+        <v>-12.57</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>7.181999999999999</v>
+        <v>6.654000000000001</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.278</v>
+        <v>-20.252</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.504</v>
+        <v>-19.842</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1817,7 +1817,7 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>17.008</v>
+        <v>16.872</v>
       </c>
     </row>
     <row r="82">
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.522</v>
+        <v>5.429</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1927,7 +1927,7 @@
         <v>-22.69</v>
       </c>
       <c r="B88" t="n">
-        <v>4.48</v>
+        <v>5.75</v>
       </c>
       <c r="C88" t="n">
         <v>-14.65</v>
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>17.718</v>
+        <v>17.834</v>
       </c>
     </row>
     <row r="93">
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-11.75</v>
+        <v>-11.367</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2063,7 +2063,7 @@
         <v>-20.86</v>
       </c>
       <c r="B96" t="n">
-        <v>6.418000000000001</v>
+        <v>6.484</v>
       </c>
       <c r="C96" t="n">
         <v>-10.59</v>
@@ -2097,7 +2097,7 @@
         <v>-21.08</v>
       </c>
       <c r="B98" t="n">
-        <v>5.33</v>
+        <v>5.031999999999999</v>
       </c>
       <c r="C98" t="n">
         <v>-13.95</v>
@@ -2148,10 +2148,10 @@
         <v>-19.85</v>
       </c>
       <c r="B101" t="n">
-        <v>8.42</v>
+        <v>9.096</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.736</v>
+        <v>-12.234</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>7.998</v>
+        <v>7.74</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
